--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:37:07+00:00</t>
+    <t>2023-02-24T14:52:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:52:45+00:00</t>
+    <t>2023-02-25T15:21:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T15:21:41+00:00</t>
+    <t>2023-02-25T15:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T15:28:03+00:00</t>
+    <t>2023-02-27T07:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is to record the Date when HIV test was done for a patient</t>
+    <t>This profile is to record the date when HIV test was done for a patient.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:44:43+00:00</t>
+    <t>2023-02-27T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:08:58+00:00</t>
+    <t>2023-02-27T08:14:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
